--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="235">
   <si>
     <t>Appetizers</t>
   </si>
@@ -690,16 +690,37 @@
     <t>standard packaging options</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>hamburger</t>
+  </si>
+  <si>
+    <t>warm-and-cozy</t>
+  </si>
+  <si>
+    <t>sandwich</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>restaurant-2</t>
+  </si>
+  <si>
+    <t>tandoori</t>
+  </si>
+  <si>
+    <t>salmon-1</t>
+  </si>
+  <si>
+    <t>salmon-2</t>
+  </si>
+  <si>
+    <t>salmon-3</t>
+  </si>
+  <si>
+    <t>asian</t>
   </si>
 </sst>
 </file>
@@ -1042,25 +1063,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="11" width="32.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="9" width="32.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
@@ -1074,16 +1095,13 @@
         <v>222</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -1096,17 +1114,14 @@
       <c r="D2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -1119,17 +1134,14 @@
       <c r="D3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="1">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1142,17 +1154,14 @@
       <c r="D4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1165,17 +1174,14 @@
       <c r="D5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
@@ -1188,17 +1194,14 @@
       <c r="D6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E6" s="1">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1211,17 +1214,14 @@
       <c r="D7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1234,17 +1234,14 @@
       <c r="D8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -1257,17 +1254,14 @@
       <c r="D9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.75">
+      <c r="F9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1280,17 +1274,14 @@
       <c r="D10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45.75">
+      <c r="F10" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
@@ -1303,17 +1294,14 @@
       <c r="D11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="1">
         <v>23</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1326,17 +1314,14 @@
       <c r="D12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
@@ -1349,17 +1334,14 @@
       <c r="D13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="1">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -1372,17 +1354,14 @@
       <c r="D14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="1">
         <v>18</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30.75">
+      <c r="F14" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1395,17 +1374,14 @@
       <c r="D15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15" s="1">
         <v>55</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
@@ -1418,17 +1394,14 @@
       <c r="D16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="1">
         <v>7</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
@@ -1441,17 +1414,14 @@
       <c r="D17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17" s="1">
         <v>7</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
@@ -1464,17 +1434,14 @@
       <c r="D18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="E18" s="1">
         <v>9</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -1487,17 +1454,14 @@
       <c r="D19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="F19" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>129</v>
       </c>
@@ -1510,17 +1474,14 @@
       <c r="D20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
@@ -1533,17 +1494,14 @@
       <c r="D21" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="1">
         <v>6</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30.75">
+      <c r="F21" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>132</v>
       </c>
@@ -1556,17 +1514,14 @@
       <c r="D22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="1">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>133</v>
       </c>
@@ -1579,17 +1534,14 @@
       <c r="D23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G23" s="1">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>134</v>
       </c>
@@ -1602,17 +1554,14 @@
       <c r="D24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G24" s="1">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
@@ -1625,17 +1574,14 @@
       <c r="D25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="1">
-        <v>9</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
@@ -1648,17 +1594,14 @@
       <c r="D26" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="1">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="1">
-        <v>9</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
@@ -1671,17 +1614,14 @@
       <c r="D27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="1">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30.75">
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1694,17 +1634,14 @@
       <c r="D28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G28" s="1">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -1717,17 +1654,14 @@
       <c r="D29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="1">
-        <v>6</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>139</v>
       </c>
@@ -1740,17 +1674,14 @@
       <c r="D30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="1">
-        <v>6</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -1763,17 +1694,14 @@
       <c r="D31" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="1">
-        <v>6</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30.75">
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -1786,17 +1714,14 @@
       <c r="D32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="1">
         <v>14</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="F32" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
@@ -1809,17 +1734,14 @@
       <c r="D33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="1">
         <v>23</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30.75">
+      <c r="F33" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>143</v>
       </c>
@@ -1832,17 +1754,14 @@
       <c r="D34" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="1">
         <v>12</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="F34" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>144</v>
       </c>
@@ -1855,17 +1774,14 @@
       <c r="D35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="1">
         <v>16</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="F35" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
@@ -1878,17 +1794,14 @@
       <c r="D36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="1">
         <v>16</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30.75">
+      <c r="F36" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -1901,17 +1814,14 @@
       <c r="D37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="E37" s="1">
         <v>15</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="F37" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -1924,17 +1834,14 @@
       <c r="D38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="E38" s="1">
         <v>30</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30.75">
+      <c r="F38" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
@@ -1947,17 +1854,14 @@
       <c r="D39" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="E39" s="1">
         <v>32</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="F39" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
@@ -1970,17 +1874,14 @@
       <c r="D40" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="E40" s="1">
         <v>30</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30.75">
+      <c r="F40" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>150</v>
       </c>
@@ -1993,17 +1894,14 @@
       <c r="D41" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="E41" s="1">
         <v>28</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30.75">
+      <c r="F41" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>151</v>
       </c>
@@ -2016,17 +1914,14 @@
       <c r="D42" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="E42" s="1">
         <v>32</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="F42" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>152</v>
       </c>
@@ -2039,17 +1934,14 @@
       <c r="D43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="E43" s="1">
         <v>25</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="F43" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
@@ -2062,17 +1954,14 @@
       <c r="D44" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="E44" s="1">
         <v>20</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="F44" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>154</v>
       </c>
@@ -2085,17 +1974,14 @@
       <c r="D45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="E45" s="1">
         <v>25</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30.75">
+      <c r="F45" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>155</v>
       </c>
@@ -2108,17 +1994,14 @@
       <c r="D46" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="E46" s="1">
         <v>28</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30.75">
+      <c r="F46" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>156</v>
       </c>
@@ -2131,17 +2014,14 @@
       <c r="D47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="E47" s="1">
         <v>42</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30.75">
+      <c r="F47" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>157</v>
       </c>
@@ -2154,17 +2034,14 @@
       <c r="D48" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="E48" s="1">
         <v>18</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30.75">
+      <c r="F48" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>158</v>
       </c>
@@ -2177,17 +2054,14 @@
       <c r="D49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="E49" s="1">
         <v>14</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="F49" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>159</v>
       </c>
@@ -2200,17 +2074,14 @@
       <c r="D50" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="E50" s="1">
         <v>18</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="F50" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -2223,17 +2094,14 @@
       <c r="D51" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="E51" s="1">
         <v>16</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="F51" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
@@ -2246,17 +2114,14 @@
       <c r="D52" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="E52" s="1">
         <v>16</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30.75">
+      <c r="F52" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
@@ -2269,17 +2134,14 @@
       <c r="D53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="E53" s="1">
         <v>15</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="F53" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -2292,17 +2154,14 @@
       <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="E54" s="1">
         <v>14</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="F54" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -2315,17 +2174,14 @@
       <c r="D55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="E55" s="1">
         <v>28</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30.75">
+      <c r="F55" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -2338,17 +2194,14 @@
       <c r="D56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="E56" s="1">
         <v>14</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="60.75">
+      <c r="F56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -2361,17 +2214,14 @@
       <c r="D57" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="E57" s="1">
         <v>15</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="F57" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -2384,17 +2234,14 @@
       <c r="D58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="E58" s="1">
         <v>9</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="F58" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>166</v>
       </c>
@@ -2407,17 +2254,14 @@
       <c r="D59" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="E59" s="1">
         <v>27</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="F59" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>167</v>
       </c>
@@ -2430,17 +2274,14 @@
       <c r="D60" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="E60" s="1">
         <v>32</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="F60" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
@@ -2453,17 +2294,14 @@
       <c r="D61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="E61" s="1">
         <v>25</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="F61" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2476,17 +2314,14 @@
       <c r="D62" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G62" s="1">
+      <c r="E62" s="1">
         <v>25</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30.75">
+      <c r="F62" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>168</v>
       </c>
@@ -2499,17 +2334,14 @@
       <c r="D63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="E63" s="1">
         <v>18</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30.75">
+      <c r="F63" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -2522,17 +2354,14 @@
       <c r="D64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="1">
+      <c r="E64" s="1">
         <v>15</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="F64" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
@@ -2545,17 +2374,14 @@
       <c r="D65" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="E65" s="1">
         <v>16</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30.75">
+      <c r="F65" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>170</v>
       </c>
@@ -2568,17 +2394,14 @@
       <c r="D66" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="E66" s="1">
         <v>14</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="F66" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>171</v>
       </c>
@@ -2591,17 +2414,14 @@
       <c r="D67" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="E67" s="1">
         <v>16</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="F67" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>172</v>
       </c>
@@ -2614,17 +2434,14 @@
       <c r="D68" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="E68" s="1">
         <v>8</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="F68" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>173</v>
       </c>
@@ -2637,17 +2454,14 @@
       <c r="D69" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="E69" s="1">
         <v>6</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30.75">
+      <c r="F69" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>174</v>
       </c>
@@ -2660,17 +2474,14 @@
       <c r="D70" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="E70" s="1">
         <v>6</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="F70" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>175</v>
       </c>
@@ -2683,17 +2494,14 @@
       <c r="D71" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="E71" s="1">
         <v>6</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="F71" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
@@ -2706,17 +2514,14 @@
       <c r="D72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="E72" s="1">
         <v>7</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="F72" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,17 +2534,14 @@
       <c r="D73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G73" s="1">
+      <c r="E73" s="1">
         <v>7</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="F73" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>175</v>
       </c>
@@ -2752,17 +2554,14 @@
       <c r="D74" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G74" s="1">
+      <c r="E74" s="1">
         <v>7</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30.75">
+      <c r="F74" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>176</v>
       </c>
@@ -2775,17 +2574,14 @@
       <c r="D75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G75" s="1">
+      <c r="E75" s="1">
         <v>12</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30.75">
+      <c r="F75" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>177</v>
       </c>
@@ -2798,17 +2594,14 @@
       <c r="D76" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="E76" s="1">
         <v>16</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30.75">
+      <c r="F76" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>178</v>
       </c>
@@ -2821,17 +2614,14 @@
       <c r="D77" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G77" s="1">
+      <c r="E77" s="1">
         <v>16</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30.75">
+      <c r="F77" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>179</v>
       </c>
@@ -2844,17 +2634,14 @@
       <c r="D78" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="E78" s="1">
         <v>21</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:6" ht="14.25" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
@@ -2867,17 +2654,14 @@
       <c r="D79" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="E79" s="1">
         <v>15</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30.75">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>181</v>
       </c>
@@ -2890,17 +2674,14 @@
       <c r="D80" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="E80" s="1">
         <v>11</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:6" ht="14.25" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
@@ -2913,17 +2694,14 @@
       <c r="D81" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G81" s="1">
+      <c r="E81" s="1">
         <v>16</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30.75">
+    <row r="82" spans="1:6" ht="14.25" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
@@ -2936,17 +2714,14 @@
       <c r="D82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G82" s="1">
+      <c r="E82" s="1">
         <v>11</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:6" ht="14.25" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>184</v>
       </c>
@@ -2959,17 +2734,14 @@
       <c r="D83" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="E83" s="1">
         <v>14</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:6" ht="14.25" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>185</v>
       </c>
@@ -2982,17 +2754,14 @@
       <c r="D84" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G84" s="1">
+      <c r="E84" s="1">
         <v>12</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:6" ht="14.25" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>186</v>
       </c>
@@ -3005,17 +2774,14 @@
       <c r="D85" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G85" s="1">
+      <c r="E85" s="1">
         <v>10</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:6" ht="14.25" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>187</v>
       </c>
@@ -3028,17 +2794,14 @@
       <c r="D86" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G86" s="1">
+      <c r="E86" s="1">
         <v>8</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="F86" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>188</v>
       </c>
@@ -3051,17 +2814,14 @@
       <c r="D87" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G87" s="1">
+      <c r="E87" s="1">
         <v>5</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="F87" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>221</v>
       </c>
@@ -3074,17 +2834,14 @@
       <c r="D88" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G88" s="1">
+      <c r="E88" s="1">
         <v>6</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30.75">
+      <c r="F88" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.25" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>189</v>
       </c>
@@ -3097,17 +2854,14 @@
       <c r="D89" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G89" s="1">
+      <c r="E89" s="1">
         <v>8</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="F89" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.25" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -3120,17 +2874,14 @@
       <c r="D90" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G90" s="1">
+      <c r="E90" s="1">
         <v>5</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="F90" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.25" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>191</v>
       </c>
@@ -3143,17 +2894,14 @@
       <c r="D91" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G91" s="1">
+      <c r="E91" s="1">
         <v>5</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="F91" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>192</v>
       </c>
@@ -3166,17 +2914,14 @@
       <c r="D92" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G92" s="1">
+      <c r="E92" s="1">
         <v>5</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="F92" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>193</v>
       </c>
@@ -3189,17 +2934,14 @@
       <c r="D93" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G93" s="1">
+      <c r="E93" s="1">
         <v>9</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="F93" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>194</v>
       </c>
@@ -3212,17 +2954,14 @@
       <c r="D94" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G94" s="1">
+      <c r="E94" s="1">
         <v>6</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30.75">
+      <c r="F94" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.25" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>195</v>
       </c>
@@ -3235,17 +2974,14 @@
       <c r="D95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G95" s="1">
+      <c r="E95" s="1">
         <v>8</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="F95" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>196</v>
       </c>
@@ -3258,17 +2994,14 @@
       <c r="D96" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G96" s="1">
+      <c r="E96" s="1">
         <v>10</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="F96" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>197</v>
       </c>
@@ -3281,17 +3014,14 @@
       <c r="D97" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G97" s="1">
+      <c r="E97" s="1">
         <v>6</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="F97" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14.25" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
@@ -3304,17 +3034,14 @@
       <c r="D98" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G98" s="1">
+      <c r="E98" s="1">
         <v>16</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="F98" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="14.25" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
@@ -3327,17 +3054,14 @@
       <c r="D99" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G99" s="1">
+      <c r="E99" s="1">
         <v>6</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="F99" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="14.25" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
@@ -3350,17 +3074,14 @@
       <c r="D100" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G100" s="1">
+      <c r="E100" s="1">
         <v>6</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="F100" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14.25" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>120</v>
       </c>
@@ -3373,17 +3094,14 @@
       <c r="D101" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G101" s="1">
+      <c r="E101" s="1">
         <v>18</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="F101" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.25" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
@@ -3396,17 +3114,14 @@
       <c r="D102" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G102" s="1">
+      <c r="E102" s="1">
         <v>9</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="F102" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="14.25" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>201</v>
       </c>
@@ -3419,17 +3134,14 @@
       <c r="D103" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G103" s="1">
+      <c r="E103" s="1">
         <v>12</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="F103" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.25" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>202</v>
       </c>
@@ -3442,17 +3154,14 @@
       <c r="D104" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G104" s="1">
+      <c r="E104" s="1">
         <v>18</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="F104" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>203</v>
       </c>
@@ -3465,17 +3174,14 @@
       <c r="D105" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G105" s="1">
+      <c r="E105" s="1">
         <v>8</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="F105" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.25" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>204</v>
       </c>
@@ -3488,17 +3194,14 @@
       <c r="D106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G106" s="1">
+      <c r="E106" s="1">
         <v>10</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="30.75">
+      <c r="F106" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>205</v>
       </c>
@@ -3511,17 +3214,14 @@
       <c r="D107" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G107" s="1">
+      <c r="E107" s="1">
         <v>12</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="F107" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.25" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
@@ -3534,17 +3234,14 @@
       <c r="D108" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G108" s="1">
+      <c r="E108" s="1">
         <v>17</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="F108" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="14.25" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>207</v>
       </c>
@@ -3557,17 +3254,14 @@
       <c r="D109" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G109" s="1">
+      <c r="E109" s="1">
         <v>9</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="F109" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="14.25" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>208</v>
       </c>
@@ -3580,17 +3274,14 @@
       <c r="D110" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G110" s="1">
+      <c r="E110" s="1">
         <v>12</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="F110" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="14.25" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>209</v>
       </c>
@@ -3603,17 +3294,14 @@
       <c r="D111" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G111" s="1">
+      <c r="E111" s="1">
         <v>16</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="F111" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.25" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>210</v>
       </c>
@@ -3626,17 +3314,14 @@
       <c r="D112" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G112" s="1">
+      <c r="E112" s="1">
         <v>11</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="F112" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>211</v>
       </c>
@@ -3649,17 +3334,14 @@
       <c r="D113" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G113" s="1">
+      <c r="E113" s="1">
         <v>11</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="F113" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14.25" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>212</v>
       </c>
@@ -3672,17 +3354,14 @@
       <c r="D114" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G114" s="1">
+      <c r="E114" s="1">
         <v>10</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30.75">
+      <c r="F114" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>213</v>
       </c>
@@ -3695,14 +3374,11 @@
       <c r="D115" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G115" s="1">
+      <c r="E115" s="1">
         <v>8</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>227</v>
+      <c r="F115" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
